--- a/Correlation Matrix.xlsx
+++ b/Correlation Matrix.xlsx
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1738795348249781</v>
+        <v>0.1760733348248463</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1738795348249781</v>
+        <v>0.1760733348248463</v>
       </c>
       <c r="C3">
         <v>1</v>
